--- a/311_service_requests/pager_analysis.xlsx
+++ b/311_service_requests/pager_analysis.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="105">
   <si>
     <t>Agency</t>
   </si>
@@ -34,295 +34,283 @@
     <t>avg(TimeTaken)</t>
   </si>
   <si>
-    <t>HRA</t>
-  </si>
-  <si>
-    <t>DOT</t>
-  </si>
-  <si>
-    <t>HPD</t>
-  </si>
-  <si>
-    <t>DCA</t>
-  </si>
-  <si>
-    <t>DPR</t>
-  </si>
-  <si>
-    <t>DOF</t>
-  </si>
-  <si>
-    <t>NYPD</t>
-  </si>
-  <si>
-    <t>DOB</t>
-  </si>
-  <si>
-    <t>DEP</t>
-  </si>
-  <si>
-    <t>DOHMH</t>
-  </si>
-  <si>
-    <t>DSNY</t>
-  </si>
-  <si>
-    <t>DHS</t>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>hra</t>
+  </si>
+  <si>
+    <t>dhs</t>
+  </si>
+  <si>
+    <t>hpd</t>
+  </si>
+  <si>
+    <t>dot</t>
+  </si>
+  <si>
+    <t>dpr</t>
+  </si>
+  <si>
+    <t>dsny</t>
+  </si>
+  <si>
+    <t>dohmh</t>
+  </si>
+  <si>
+    <t>dca</t>
+  </si>
+  <si>
+    <t>nypd</t>
+  </si>
+  <si>
+    <t>dep</t>
+  </si>
+  <si>
+    <t>dof</t>
   </si>
   <si>
     <t>ComplaintType</t>
   </si>
   <si>
-    <t>Traffic Signal Condition</t>
-  </si>
-  <si>
-    <t>ELECTRIC</t>
-  </si>
-  <si>
-    <t>DOOR/WINDOW</t>
-  </si>
-  <si>
-    <t>Street Condition</t>
-  </si>
-  <si>
-    <t>UNSANITARY CONDITION</t>
-  </si>
-  <si>
-    <t>Animal Abuse</t>
-  </si>
-  <si>
-    <t>Sanitation Condition</t>
-  </si>
-  <si>
-    <t>Illegal Parking</t>
-  </si>
-  <si>
-    <t>Noise - Residential</t>
-  </si>
-  <si>
-    <t>Sewer</t>
-  </si>
-  <si>
-    <t>Noise - Commercial</t>
-  </si>
-  <si>
-    <t>Water System</t>
-  </si>
-  <si>
-    <t>Derelict Vehicle</t>
-  </si>
-  <si>
-    <t>Homeless Encampment</t>
-  </si>
-  <si>
-    <t>HEAT/HOT WATER</t>
-  </si>
-  <si>
-    <t>Maintenance or Facility</t>
-  </si>
-  <si>
-    <t>Consumer Complaint</t>
-  </si>
-  <si>
-    <t>Benefit Card Replacement</t>
-  </si>
-  <si>
-    <t>Homeless Person Assistance</t>
-  </si>
-  <si>
-    <t>Noise</t>
-  </si>
-  <si>
-    <t>Plumbing</t>
-  </si>
-  <si>
-    <t>Street Light Condition</t>
-  </si>
-  <si>
-    <t>Elevator</t>
-  </si>
-  <si>
-    <t>Special Enforcement</t>
-  </si>
-  <si>
-    <t>PLUMBING</t>
-  </si>
-  <si>
-    <t>Non-Emergency Police Matter</t>
-  </si>
-  <si>
-    <t>General Construction/Plumbing</t>
-  </si>
-  <si>
-    <t>Street Sign - Dangling</t>
-  </si>
-  <si>
-    <t>Noise - Vehicle</t>
-  </si>
-  <si>
-    <t>Traffic</t>
-  </si>
-  <si>
-    <t>WATER LEAK</t>
-  </si>
-  <si>
-    <t>Graffiti</t>
-  </si>
-  <si>
-    <t>Noise - Street/Sidewalk</t>
-  </si>
-  <si>
-    <t>Indoor Air Quality</t>
-  </si>
-  <si>
-    <t>DOF Property - Payment Issue</t>
+    <t>traffic</t>
+  </si>
+  <si>
+    <t>sewer</t>
+  </si>
+  <si>
+    <t>heat/hot water</t>
+  </si>
+  <si>
+    <t>derelict vehicle</t>
+  </si>
+  <si>
+    <t>graffiti</t>
+  </si>
+  <si>
+    <t>plumbing</t>
+  </si>
+  <si>
+    <t>elevator</t>
+  </si>
+  <si>
+    <t>street sign - dangling</t>
+  </si>
+  <si>
+    <t>homeless encampment</t>
+  </si>
+  <si>
+    <t>indoor air quality</t>
+  </si>
+  <si>
+    <t>water system</t>
+  </si>
+  <si>
+    <t>noise</t>
+  </si>
+  <si>
+    <t>benefit card replacement</t>
+  </si>
+  <si>
+    <t>noise - street/sidewalk</t>
+  </si>
+  <si>
+    <t>unsanitary condition</t>
+  </si>
+  <si>
+    <t>traffic signal condition</t>
+  </si>
+  <si>
+    <t>noise - residential</t>
+  </si>
+  <si>
+    <t>noise - commercial</t>
+  </si>
+  <si>
+    <t>non-emergency police matter</t>
+  </si>
+  <si>
+    <t>consumer complaint</t>
+  </si>
+  <si>
+    <t>street condition</t>
+  </si>
+  <si>
+    <t>water leak</t>
+  </si>
+  <si>
+    <t>maintenance or facility</t>
+  </si>
+  <si>
+    <t>dof property - payment issue</t>
+  </si>
+  <si>
+    <t>general construction/plumbing</t>
+  </si>
+  <si>
+    <t>street light condition</t>
+  </si>
+  <si>
+    <t>illegal parking</t>
+  </si>
+  <si>
+    <t>noise - vehicle</t>
+  </si>
+  <si>
+    <t>special enforcement</t>
+  </si>
+  <si>
+    <t>door/window</t>
+  </si>
+  <si>
+    <t>sanitation condition</t>
+  </si>
+  <si>
+    <t>animal abuse</t>
+  </si>
+  <si>
+    <t>electric</t>
+  </si>
+  <si>
+    <t>homeless person assistance</t>
   </si>
   <si>
     <t>LocationType</t>
   </si>
   <si>
-    <t>Store/Commercial</t>
-  </si>
-  <si>
-    <t>Residential</t>
-  </si>
-  <si>
-    <t>Mixed Use</t>
-  </si>
-  <si>
-    <t>Residential Building/House</t>
-  </si>
-  <si>
-    <t>Street</t>
-  </si>
-  <si>
-    <t>Street/Sidewalk</t>
-  </si>
-  <si>
-    <t>Property Address</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Comercial</t>
-  </si>
-  <si>
-    <t>RESIDENTIAL BUILDING</t>
-  </si>
-  <si>
-    <t>Park</t>
-  </si>
-  <si>
-    <t>NYC Street Address</t>
-  </si>
-  <si>
-    <t>Commercial Building</t>
+    <t>street/sidewalk</t>
+  </si>
+  <si>
+    <t>park</t>
+  </si>
+  <si>
+    <t>residential building/house</t>
+  </si>
+  <si>
+    <t>residential building</t>
+  </si>
+  <si>
+    <t>comercial</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>residential</t>
+  </si>
+  <si>
+    <t>commercial building</t>
+  </si>
+  <si>
+    <t>nyc street address</t>
+  </si>
+  <si>
+    <t>store/commercial</t>
+  </si>
+  <si>
+    <t>mixed use</t>
+  </si>
+  <si>
+    <t>property address</t>
+  </si>
+  <si>
+    <t>street</t>
   </si>
   <si>
     <t>AddressType</t>
   </si>
   <si>
-    <t>INTERSECTION</t>
-  </si>
-  <si>
-    <t>BLOCKFACE</t>
-  </si>
-  <si>
-    <t>ADDRESS</t>
+    <t>blockface</t>
+  </si>
+  <si>
+    <t>intersection</t>
+  </si>
+  <si>
+    <t>address</t>
   </si>
   <si>
     <t>City</t>
   </si>
   <si>
-    <t>Flushing</t>
-  </si>
-  <si>
-    <t>East Elmhurst</t>
-  </si>
-  <si>
-    <t>Richmond Hill</t>
-  </si>
-  <si>
-    <t>ROCKAWAY PARK</t>
-  </si>
-  <si>
-    <t>BROOKLYN</t>
-  </si>
-  <si>
-    <t>Queens Village</t>
-  </si>
-  <si>
-    <t>Ridgewood</t>
-  </si>
-  <si>
-    <t>LONG ISLAND CITY</t>
-  </si>
-  <si>
-    <t>OZONE PARK</t>
-  </si>
-  <si>
-    <t>Cambria Heights</t>
-  </si>
-  <si>
-    <t>BRONX</t>
-  </si>
-  <si>
-    <t>Woodhaven</t>
-  </si>
-  <si>
-    <t>ASTORIA</t>
-  </si>
-  <si>
-    <t>NEW YORK</t>
-  </si>
-  <si>
-    <t>RIDGEWOOD</t>
-  </si>
-  <si>
-    <t>Rockaway Park</t>
-  </si>
-  <si>
-    <t>STATEN ISLAND</t>
-  </si>
-  <si>
-    <t>HOLLIS</t>
-  </si>
-  <si>
-    <t>Hollis</t>
+    <t>long island city</t>
+  </si>
+  <si>
+    <t>new york</t>
+  </si>
+  <si>
+    <t>rockaway park</t>
+  </si>
+  <si>
+    <t>bronx</t>
+  </si>
+  <si>
+    <t>cambria heights</t>
+  </si>
+  <si>
+    <t>astoria</t>
+  </si>
+  <si>
+    <t>woodhaven</t>
+  </si>
+  <si>
+    <t>flushing</t>
+  </si>
+  <si>
+    <t>ridgewood</t>
+  </si>
+  <si>
+    <t>queens village</t>
+  </si>
+  <si>
+    <t>richmond hill</t>
+  </si>
+  <si>
+    <t>east elmhurst</t>
+  </si>
+  <si>
+    <t>brooklyn</t>
+  </si>
+  <si>
+    <t>staten island</t>
+  </si>
+  <si>
+    <t>hollis</t>
+  </si>
+  <si>
+    <t>ozone park</t>
   </si>
   <si>
     <t>FacilityType</t>
   </si>
   <si>
-    <t>Precinct</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>DSNY Garage</t>
+    <t>precinct</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>dsny garage</t>
   </si>
   <si>
     <t>Borough</t>
   </si>
   <si>
-    <t>Unspecified</t>
-  </si>
-  <si>
-    <t>QUEENS</t>
-  </si>
-  <si>
-    <t>MANHATTAN</t>
+    <t>manhattan</t>
+  </si>
+  <si>
+    <t>unspecified</t>
+  </si>
+  <si>
+    <t>queens</t>
   </si>
   <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Closed</t>
-  </si>
-  <si>
-    <t>Assigned</t>
+    <t>assigned</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t>SchoolZone</t>
@@ -732,10 +720,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>0.009722222108393908</v>
+        <v>72.78294360637665</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -746,10 +734,10 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>18.89809226195018</v>
+        <v>0.009722222108393908</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -760,10 +748,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>320.9337921142578</v>
+        <v>1.10520832426846</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -774,10 +762,10 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>22.10833358764648</v>
+        <v>320.9337921142578</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -788,10 +776,10 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>250.8815383911133</v>
+        <v>18.89809226195018</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -802,10 +790,10 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>147.8222198486328</v>
+        <v>250.8815383911133</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -816,10 +804,10 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>3.077252232142397</v>
+        <v>3080.238115946452</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -830,10 +818,10 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>72.78294360637665</v>
+        <v>185.7138824462891</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -844,10 +832,10 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>188.9583326180776</v>
+        <v>22.10833358764648</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -858,10 +846,10 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D11">
-        <v>185.7138824462891</v>
+        <v>3.077252232142397</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -872,10 +860,10 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>3080.238115946452</v>
+        <v>188.9583326180776</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -886,10 +874,10 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>1.10520832426846</v>
+        <v>147.8222198486328</v>
       </c>
     </row>
   </sheetData>
@@ -907,7 +895,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -916,25 +904,25 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -948,7 +936,7 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2">
         <v>14</v>
@@ -957,7 +945,7 @@
         <v>4</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -969,7 +957,7 @@
         <v>2</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -977,22 +965,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C3">
         <v>357.7107861332763</v>
       </c>
       <c r="D3">
-        <v>195.42386205773</v>
+        <v>197.8224519094753</v>
       </c>
       <c r="E3">
-        <v>825.7452147830708</v>
+        <v>825.7452147830707</v>
       </c>
       <c r="F3">
         <v>160.6823311942179</v>
       </c>
       <c r="G3">
-        <v>346.5839711236723</v>
+        <v>393.7660201598345</v>
       </c>
       <c r="H3">
         <v>236.6931227142292</v>
@@ -1004,7 +992,7 @@
         <v>283.1107901498563</v>
       </c>
       <c r="K3">
-        <v>289.1672525320786</v>
+        <v>362.6890151436015</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1012,13 +1000,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C4">
         <v>864.2665355132655</v>
       </c>
       <c r="D4">
-        <v>579.7168214583853</v>
+        <v>587.6951661805123</v>
       </c>
       <c r="E4">
         <v>1540.420609786492</v>
@@ -1027,7 +1015,7 @@
         <v>232.7896084896718</v>
       </c>
       <c r="G4">
-        <v>1092.115513589611</v>
+        <v>1181.807531465718</v>
       </c>
       <c r="H4">
         <v>329.9037852381834</v>
@@ -1037,9 +1025,6 @@
       </c>
       <c r="J4">
         <v>115.041507390304</v>
-      </c>
-      <c r="K4">
-        <v>106.2860398995641</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1047,7 +1032,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C5">
         <v>0.009722222108393908</v>
@@ -1074,7 +1059,7 @@
         <v>201.76416015625</v>
       </c>
       <c r="K5">
-        <v>214.0116729736328</v>
+        <v>362.6890151436015</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1082,13 +1067,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C6">
         <v>14.94288225449823</v>
       </c>
       <c r="D6">
-        <v>3.246675319503993</v>
+        <v>3.149110215948895</v>
       </c>
       <c r="E6">
         <v>3.239819415286183</v>
@@ -1097,7 +1082,7 @@
         <v>40.64968477468938</v>
       </c>
       <c r="G6">
-        <v>1.757361143827438</v>
+        <v>1.950000047683716</v>
       </c>
       <c r="H6">
         <v>47.99695817783878</v>
@@ -1109,7 +1094,7 @@
         <v>242.4374751530531</v>
       </c>
       <c r="K6">
-        <v>251.5894627528557</v>
+        <v>362.6890151436015</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1117,13 +1102,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C7">
         <v>110.3025817275047</v>
       </c>
       <c r="D7">
-        <v>22.10833358764648</v>
+        <v>26.01249980926514</v>
       </c>
       <c r="E7">
         <v>110.9946640127085</v>
@@ -1132,7 +1117,7 @@
         <v>60.48578631272539</v>
       </c>
       <c r="G7">
-        <v>24.17392313212622</v>
+        <v>36.87651397423311</v>
       </c>
       <c r="H7">
         <v>92.91666412353516</v>
@@ -1144,7 +1129,7 @@
         <v>283.1107901498563</v>
       </c>
       <c r="K7">
-        <v>289.1672525320786</v>
+        <v>362.6890151436015</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1152,13 +1137,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C8">
         <v>204.4391340613365</v>
       </c>
       <c r="D8">
-        <v>193.7390213012695</v>
+        <v>183.4825630187988</v>
       </c>
       <c r="E8">
         <v>303.4207286834717</v>
@@ -1167,7 +1152,7 @@
         <v>180.5184327322539</v>
       </c>
       <c r="G8">
-        <v>165.4729156494141</v>
+        <v>147.3068034648895</v>
       </c>
       <c r="H8">
         <v>353.5010579552726</v>
@@ -1179,7 +1164,7 @@
         <v>323.7841051466594</v>
       </c>
       <c r="K8">
-        <v>326.7450423113014</v>
+        <v>362.6890151436015</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1187,7 +1172,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C9">
         <v>3080.238115946452</v>
@@ -1214,7 +1199,7 @@
         <v>364.4574201434626</v>
       </c>
       <c r="K9">
-        <v>364.3228320905243</v>
+        <v>362.6890151436015</v>
       </c>
     </row>
   </sheetData>
@@ -1224,7 +1209,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1249,10 +1234,10 @@
         <v>16</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>1.246666687726975</v>
+        <v>3.943425973256429</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1266,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>337.4477844238281</v>
+        <v>29.91666603088379</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1280,7 +1265,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>293.5547180175781</v>
+        <v>176.7886047363281</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1291,10 +1276,10 @@
         <v>19</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>8.618101919690767</v>
+        <v>3.441805526614189</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1305,10 +1290,10 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>411.6473503112793</v>
+        <v>3453.653297424316</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1319,10 +1304,10 @@
         <v>21</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>10.03499984741211</v>
+        <v>113.8718070983887</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1336,7 +1321,7 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>92.91666412353516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1347,10 +1332,10 @@
         <v>23</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>3.051545112393796</v>
+        <v>166.6294403076172</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1361,10 +1346,10 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>2.419351786375046</v>
+        <v>4.999722003936768</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1378,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>29.91666603088379</v>
+        <v>185.7138824462891</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1389,10 +1374,10 @@
         <v>26</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>1.423611134290695</v>
+        <v>341.0499999523163</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1403,10 +1388,10 @@
         <v>27</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>341.0499999523163</v>
+        <v>140.5777765909831</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1417,10 +1402,10 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>3.441805526614189</v>
+        <v>0.009722222108393908</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1434,7 +1419,7 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>4.999722003936768</v>
+        <v>4.328333377838135</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1445,10 +1430,10 @@
         <v>30</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>176.7886047363281</v>
+        <v>411.6473503112793</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1459,10 +1444,10 @@
         <v>31</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>250.8815383911133</v>
+        <v>1.246666687726975</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1473,10 +1458,10 @@
         <v>32</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>22.10833358764648</v>
+        <v>2.419351786375046</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1487,10 +1472,10 @@
         <v>33</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>0.009722222108393908</v>
+        <v>1.423611134290695</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1501,10 +1486,10 @@
         <v>34</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>1.10520832426846</v>
+        <v>1.501944482326508</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1515,10 +1500,10 @@
         <v>35</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>140.5777765909831</v>
+        <v>22.10833358764648</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1529,10 +1514,10 @@
         <v>36</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D22">
-        <v>9.318611145019531</v>
+        <v>8.618101919690767</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1543,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>19.63333288828532</v>
+        <v>215.5986175537109</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1557,10 +1542,10 @@
         <v>38</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>250.8815383911133</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1574,7 +1559,7 @@
         <v>1</v>
       </c>
       <c r="D25">
-        <v>201.76416015625</v>
+        <v>147.8222198486328</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1585,10 +1570,10 @@
         <v>40</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>218.4250030517578</v>
+        <v>76.41597336530685</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1599,10 +1584,10 @@
         <v>41</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27">
-        <v>1.501944482326508</v>
+        <v>19.63333288828532</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1613,10 +1598,10 @@
         <v>42</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D28">
-        <v>76.41597336530685</v>
+        <v>3.051545112393796</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1627,10 +1612,10 @@
         <v>43</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>166.6294403076172</v>
+        <v>1.846759269634883</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1641,10 +1626,10 @@
         <v>44</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>1.846759269634883</v>
+        <v>201.76416015625</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1655,10 +1640,10 @@
         <v>45</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>3.943425973256429</v>
+        <v>293.5547180175781</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1672,7 +1657,7 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>215.5986175537109</v>
+        <v>92.91666412353516</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1683,10 +1668,10 @@
         <v>47</v>
       </c>
       <c r="C33">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>3453.653297424316</v>
+        <v>10.03499984741211</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1700,7 +1685,7 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>4.328333377838135</v>
+        <v>337.4477844238281</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1711,24 +1696,10 @@
         <v>49</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>185.7138824462891</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>147.8222198486328</v>
+        <v>1.10520832426846</v>
       </c>
     </row>
   </sheetData>
@@ -1746,7 +1717,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1760,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D2">
-        <v>1.396055567264557</v>
+        <v>3.096296279132366</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1774,38 +1745,38 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>4646.38037109375</v>
+        <v>250.8815383911133</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>54</v>
-      </c>
       <c r="C4">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>2142.755981445312</v>
+        <v>74.16710817678408</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
       <c r="C5">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>74.16710817678408</v>
+        <v>3.670388823747635</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1813,13 +1784,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>3.670388823747635</v>
+        <v>320.9337921142578</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1827,13 +1798,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>44.08078591525555</v>
+        <v>3739.466809082031</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1841,13 +1812,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>3.096296279132366</v>
+        <v>0.05805555731058121</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1855,13 +1826,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>147.8222198486328</v>
+        <v>4646.38037109375</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1869,13 +1840,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.05805555731058121</v>
+        <v>185.7138824462891</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1883,13 +1854,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>3739.466809082031</v>
+        <v>0.009722222108393908</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1897,13 +1868,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>320.9337921142578</v>
+        <v>1.396055567264557</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1911,13 +1882,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13">
-        <v>250.8815383911133</v>
+        <v>2142.755981445312</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1925,13 +1896,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>0.009722222108393908</v>
+        <v>147.8222198486328</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1939,13 +1910,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>185.7138824462891</v>
+        <v>44.08078591525555</v>
       </c>
     </row>
   </sheetData>
@@ -1963,7 +1934,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1977,13 +1948,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>49.62786681950092</v>
+        <v>13.71513864025474</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2002,13 +1973,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>13.71513864025474</v>
+        <v>49.62786681950092</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2016,7 +1987,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5">
         <v>63</v>
@@ -2032,7 +2003,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2040,7 +2011,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2054,13 +2025,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>0.7166666835546494</v>
+        <v>2.660000026226044</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2068,24 +2039,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>1.833333373069763</v>
+        <v>462.490642442368</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
       <c r="C4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>18.43118023336865</v>
+        <v>74.41944324970245</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2096,24 +2070,21 @@
         <v>72</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>1.950000047683716</v>
+        <v>107.9286685466766</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>73</v>
-      </c>
       <c r="C6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>147.8222198486328</v>
+        <v>18.43118023336865</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2121,13 +2092,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>575.985273219645</v>
+        <v>4933.53076171875</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2135,13 +2106,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>92.91666412353516</v>
+        <v>1.529444456100464</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2149,13 +2120,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>293.5547180175781</v>
+        <v>218.4250030517578</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2163,13 +2134,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>2.660000026226044</v>
+        <v>0.7166666835546494</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2177,13 +2148,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>1.091111063957214</v>
+        <v>147.3068034648895</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2191,13 +2162,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>4933.53076171875</v>
+        <v>92.91666412353516</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2205,13 +2176,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>107.9286685466766</v>
+        <v>1.950000047683716</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2219,13 +2190,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>218.4250030517578</v>
+        <v>1.833333373069763</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2233,13 +2204,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D15">
-        <v>1.529444456100464</v>
+        <v>575.985273219645</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2247,13 +2218,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D16">
-        <v>462.490642442368</v>
+        <v>36.87651397423311</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2261,13 +2232,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>1.058888912200928</v>
+        <v>15.93083304166794</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2275,55 +2246,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>1.016666650772095</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19">
-        <v>11</v>
-      </c>
-      <c r="D19">
-        <v>36.87651397423311</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>1.945000052452087</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>29.91666603088379</v>
+        <v>1.091111063957214</v>
       </c>
     </row>
   </sheetData>
@@ -2341,7 +2270,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2355,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C2">
         <v>37</v>
@@ -2369,7 +2298,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C3">
         <v>54</v>
@@ -2383,7 +2312,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2407,7 +2336,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2421,13 +2350,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>0.009722222108393908</v>
+        <v>100.5159360278737</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2435,13 +2364,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C3">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>321.1478042453527</v>
+        <v>462.490642442368</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2449,13 +2378,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>575.985273219645</v>
+        <v>0.009722222108393908</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2463,13 +2392,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>100.5159360278737</v>
+        <v>575.985273219645</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2477,13 +2406,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>462.490642442368</v>
+        <v>321.1478042453527</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2491,7 +2420,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C7">
         <v>11</v>
@@ -2515,7 +2444,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2529,13 +2458,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C2">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>364.4574201434626</v>
+        <v>201.76416015625</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2543,13 +2472,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="D3">
-        <v>201.76416015625</v>
+        <v>364.4574201434626</v>
       </c>
     </row>
   </sheetData>
@@ -2559,7 +2488,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2567,7 +2496,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2581,27 +2510,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D2">
-        <v>364.3228320905243</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>214.0116729736328</v>
+        <v>362.6890151436015</v>
       </c>
     </row>
   </sheetData>
